--- a/Results/result.xlsx
+++ b/Results/result.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Data Ratio</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>FPR</t>
-  </si>
-  <si>
-    <t>1 to 3</t>
-  </si>
-  <si>
-    <t>AlexNet</t>
   </si>
 </sst>
 </file>
@@ -74,6 +68,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -154,14 +149,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
+      <selection activeCell="F17" activeCellId="0" pane="topLeft" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -203,170 +198,6 @@
       </c>
       <c r="M1" s="0" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>4000</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>816</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>272</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>815</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>272</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>816</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>271</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>816</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>271</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -387,17 +218,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -412,17 +243,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Results/result.xlsx
+++ b/Results/result.xlsx
@@ -17,53 +17,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>TrainExamples</t>
+  </si>
+  <si>
+    <t>TestExamples</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Learning rate</t>
+  </si>
+  <si>
+    <t>Batch_size</t>
+  </si>
+  <si>
+    <t>Oversampling</t>
+  </si>
   <si>
     <t>Data Ratio</t>
   </si>
   <si>
-    <t>Epochs</t>
-  </si>
-  <si>
-    <t>Learning rate</t>
-  </si>
-  <si>
-    <t>Batch_size</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Train acc</t>
   </si>
   <si>
     <t>Test acc</t>
   </si>
   <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
     <t>TPR</t>
   </si>
   <si>
     <t>FPR</t>
+  </si>
+  <si>
+    <t>cnn_mpdel4</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="HH:MM:SS" numFmtId="165"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -130,8 +134,9 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -149,14 +154,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F17" activeCellId="0" pane="topLeft" sqref="F17"/>
+      <selection activeCell="L6" activeCellId="0" pane="topLeft" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.721568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -196,8 +204,195 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>80.38</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2168</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>96.86</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>78.46</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2168</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>98.54</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>80.34</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2168</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3200</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>98.27</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>79.03</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>88.07</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2168</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3400</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>98.9</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>83.26</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -223,7 +418,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -248,7 +443,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Results/result.xlsx
+++ b/Results/result.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -60,6 +60,15 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>Ran for upto 11500 epochs but didnt get any satisfactory results, model was overfitting and TPR fluctuating between 75 to 85%</t>
+  </si>
+  <si>
+    <t>Ran for 10000 epochs..train acc went to 99.93 but TPR didnt cross 85%</t>
+  </si>
+  <si>
+    <t>For learning rate 0.001 train acc doesnt improve and TRP and FPR are both 'Zero' %</t>
+  </si>
 </sst>
 </file>
 
@@ -69,7 +78,7 @@
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="HH:MM:SS" numFmtId="165"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -89,6 +98,13 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -134,9 +150,13 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -154,17 +174,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L6" activeCellId="0" pane="topLeft" sqref="L6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="100">
+      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.721568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -240,7 +260,7 @@
         <v>80.38</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.28</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -278,7 +298,7 @@
         <v>86.16</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.41</v>
+        <v>41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -320,40 +340,40 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>2168</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>520</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>3200</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="n">
+      <c r="E5" s="2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="n">
         <v>0.0423611111111111</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="2" t="n">
         <v>98.27</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="2" t="n">
         <v>79.03</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="2" t="n">
         <v>88.07</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <v>30</v>
       </c>
     </row>
@@ -393,6 +413,1503 @@
       </c>
       <c r="L6" s="0" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9" s="2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>816</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>82.72</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>86.76</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>96.22</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>84.44</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>80.147</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3200</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>97.45</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>82.1</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>84.56</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>19.12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>98.52</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>80.15</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>98.59</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>83.57</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>83.09</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3800</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>99.11</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>86.02</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>85.1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>4100</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>9.38</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>99.57</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>78.31</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>4600</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>99.29</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>84.56</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>17.83</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>4700</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>82.72</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>99.54</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>83.46</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="A23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>99.44</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>84.55</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>84.93</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="A24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>99.54</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>83.45</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+      <c r="A25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>5900</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>80.15</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="A26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>99.87</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>87.86</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>80.51</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>8.46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="A27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>99.57</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>84.55</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28" s="2">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>816</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>6700</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>99.66</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>82.72</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>85.66</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>7100</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>99.87</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>85.04</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="A30" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32" s="2">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>816</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>86.48</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>80.75</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="A33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>90.43</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>83.57</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>84.56</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="A34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>84.55</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="A35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>95.64</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>85.9</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>82.35</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>95.12</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+      <c r="A37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>3400</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>96.32</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>83.82</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="A38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>97.48</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>86.15</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>80.51</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>96.44</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="A40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>4100</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>96.75</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>81.86</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>85.29</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>19.85</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+      <c r="A41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>98.68</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>85.66</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42" s="2">
+      <c r="A42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>816</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>84.06</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>85.66</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="A43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>99.08</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>82.72</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="A44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>4900</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>80.51</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="A45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>98.68</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>82.72</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>85.29</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="A46" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>5300</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>99.57</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>79.1</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="A47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>99.29</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>83.82</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48" s="2">
+      <c r="A48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>816</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>86.88</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+      <c r="A49" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+      <c r="A51" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54" s="4">
+      <c r="A54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>4350</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>1088</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F54" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>0.04375</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="J54" s="4" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K54" s="4" t="n">
+        <v>74.63</v>
+      </c>
+      <c r="L54" s="4" t="n">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -413,12 +1930,12 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -438,12 +1955,12 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
